--- a/simplified_sha256/finalsummary.xlsx
+++ b/simplified_sha256/finalsummary.xlsx
@@ -88,7 +88,7 @@
     <t>A15664032</t>
   </si>
   <si>
-    <t>B00</t>
+    <t>A00</t>
   </si>
   <si>
     <t>ehom@ucsd.edu</t>
@@ -721,19 +721,19 @@
         <v>19</v>
       </c>
       <c r="G3" s="17">
-        <v>28620</v>
+        <v>3709</v>
       </c>
       <c r="H3" s="17">
-        <v>16969</v>
+        <v>3280</v>
       </c>
       <c r="I3" s="18">
         <f>G3+H3</f>
       </c>
       <c r="J3" s="19">
-        <v>171.35</v>
+        <v>105.22</v>
       </c>
       <c r="K3" s="17">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="L3" s="20">
         <f>K3/J3</f>
@@ -770,19 +770,19 @@
         <v>19</v>
       </c>
       <c r="G4" s="17">
-        <v>28620</v>
+        <v>3709</v>
       </c>
       <c r="H4" s="17">
-        <v>16969</v>
+        <v>3280</v>
       </c>
       <c r="I4" s="18">
         <f>G4+H4</f>
       </c>
       <c r="J4" s="19">
-        <v>171.35</v>
+        <v>105.22</v>
       </c>
       <c r="K4" s="17">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="L4" s="20">
         <f>K4/J4</f>
